--- a/RESULTS/FINAL GRAPHS/Results.xlsx
+++ b/RESULTS/FINAL GRAPHS/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20867f98547c38/Documents/University/2022/SEMESTER 2/ELEN4002_EIEInvestigation/REPO/EIE-Investigation-22G05/RESULTS/FINAL GRAPHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC10483519DA43DC5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B16820-0A80-48A3-8515-63D974559C04}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10483519DA43DC5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3E297F-2765-4296-A486-4D1BD41B0C8F}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>All</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ALL DATA</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +248,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>All</c:v>
+                  <c:v>&gt;1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>&gt;2</c:v>
@@ -316,7 +319,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>All</c:v>
+                  <c:v>&gt;1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>&gt;2</c:v>
@@ -4382,7 +4385,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,41 +4394,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4688,76 +4691,76 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f>B3/B5</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>C3/C5</f>
         <v>0.59090909090909094</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>D3/D5</f>
         <v>0.5625</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>E3/E5</f>
         <v>0.58823529411764708</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f>H3/H5</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>I3/I5</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>J3/J5</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>K3/K5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f>N3/N5</f>
         <v>0.78873239436619713</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f>O3/O5</f>
         <v>0.73584905660377353</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f>P3/P5</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f>Q3/Q5</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <f>T3/T5</f>
         <v>0.57758620689655171</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <f>U3/U5</f>
         <v>0.5625</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <f>V3/V5</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <f>W3/W5</f>
         <v>0.53488372093023251</v>
       </c>
@@ -4766,76 +4769,76 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <f>B4/B5</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>C4/C5</f>
         <v>0.40909090909090912</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>D4/D5</f>
         <v>0.4375</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>E4/E5</f>
         <v>0.41176470588235292</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f>H4/H5</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>I4/I5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f>J4/J5</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>K4/K5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f>N4/N5</f>
         <v>0.21126760563380281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f>O4/O5</f>
         <v>0.26415094339622641</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f>P4/P5</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f>Q4/Q5</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="S7" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <f>T4/T5</f>
         <v>0.42241379310344829</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <f>U4/U5</f>
         <v>0.4375</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <f>V4/V5</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <f>W4/W5</f>
         <v>0.46511627906976744</v>
       </c>

--- a/RESULTS/FINAL GRAPHS/Results.xlsx
+++ b/RESULTS/FINAL GRAPHS/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20867f98547c38/Documents/University/2022/SEMESTER 2/ELEN4002_EIEInvestigation/REPO/EIE-Investigation-22G05/RESULTS/FINAL GRAPHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10483519DA43DC5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3E297F-2765-4296-A486-4D1BD41B0C8F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC10483519DA43DC5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BBBD89-D21A-4EB6-8693-12F627DA23AC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>All</t>
   </si>
@@ -76,6 +76,18 @@
   <si>
     <t>&gt;1</t>
   </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>TREATED</t>
+  </si>
+  <si>
+    <t>NON-TREATED</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
 </sst>
 </file>
 
@@ -97,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,12 +136,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4382,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,13 +4495,13 @@
       <c r="T2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4537,13 +4557,13 @@
       <c r="T3">
         <v>67</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>45</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <v>32</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>23</v>
       </c>
     </row>
@@ -4599,13 +4619,13 @@
       <c r="T4">
         <v>49</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>35</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <v>28</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>20</v>
       </c>
     </row>
@@ -4674,15 +4694,15 @@
         <f>SUM(T3:T4)</f>
         <v>116</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <f t="shared" ref="U5" si="7">SUM(U3:U4)</f>
         <v>80</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <f t="shared" ref="V5" si="8">SUM(V3:V4)</f>
         <v>60</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <f t="shared" ref="W5" si="9">SUM(W3:W4)</f>
         <v>43</v>
       </c>
@@ -4752,15 +4772,15 @@
         <f>T3/T5</f>
         <v>0.57758620689655171</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="4">
         <f>U3/U5</f>
         <v>0.5625</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="4">
         <f>V3/V5</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="4">
         <f>W3/W5</f>
         <v>0.53488372093023251</v>
       </c>
@@ -4830,15 +4850,15 @@
         <f>T4/T5</f>
         <v>0.42241379310344829</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="4">
         <f>U4/U5</f>
         <v>0.4375</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="4">
         <f>V4/V5</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="4">
         <f>W4/W5</f>
         <v>0.46511627906976744</v>
       </c>
@@ -4896,17 +4916,37 @@
         <f>T6+T7</f>
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <f t="shared" ref="U8" si="17">U6+U7</f>
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <f t="shared" ref="V8" si="18">V6+V7</f>
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <f t="shared" ref="W8" si="19">W6+W7</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
